--- a/Entrega_1/METADATA Train.xlsx
+++ b/Entrega_1/METADATA Train.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>Total variables:</t>
   </si>
@@ -193,7 +193,10 @@
     <t>CreditScore</t>
   </si>
   <si>
-    <t>Averiguar escala!!!</t>
+    <t>300-579: muy bajo/riesgo alto, 580-669: bajo/riesgo moderado, 670/739: medio/riesgo aceptable, 740-799: alto/riesgobajo, 800-850: muy alto/riesgo mínimo</t>
+  </si>
+  <si>
+    <t>Indicador de compromiso financiero. Clientes con puntaje alto suelen ser más confiables. Con puntaje bajo o medio podrían estar insatisfechos, tener problemas financieros o buscar otros bancos</t>
   </si>
   <si>
     <t>SavingAccountFlag</t>
@@ -521,7 +524,7 @@
     <col customWidth="1" min="2" max="2" width="17.0"/>
     <col customWidth="1" min="3" max="4" width="13.63"/>
     <col customWidth="1" min="5" max="5" width="24.88"/>
-    <col customWidth="1" min="6" max="6" width="41.75"/>
+    <col customWidth="1" min="6" max="6" width="116.13"/>
     <col customWidth="1" min="7" max="7" width="98.38"/>
   </cols>
   <sheetData>
@@ -979,14 +982,16 @@
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -1005,7 +1010,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1022,7 +1027,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -1035,13 +1040,13 @@
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -1051,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" s="7"/>
     </row>
